--- a/allkabu1.xlsx
+++ b/allkabu1.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y969"/>
+  <dimension ref="A1:Y999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33577,6 +33577,1023 @@
         </is>
       </c>
     </row>
+    <row r="970">
+      <c r="A970" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>0969</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R970" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S970" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>0970</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>ユーロ／米＄</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;1.16&lt;/td&gt;</t>
+        </is>
+      </c>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>&lt;dd&gt;0.00&lt;/dd&gt;</t>
+        </is>
+      </c>
+      <c r="F971" t="inlineStr">
+        <is>
+          <t>－ 百万円</t>
+        </is>
+      </c>
+      <c r="G971" t="inlineStr">
+        <is>
+          <t>－ 回</t>
+        </is>
+      </c>
+      <c r="L971" t="inlineStr">
+        <is>
+          <t>－ 株</t>
+        </is>
+      </c>
+      <c r="M971" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;1.16&lt;/td&gt;</t>
+        </is>
+      </c>
+      <c r="N971" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;1.16&lt;/td&gt;</t>
+        </is>
+      </c>
+      <c r="O971" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;1.16&lt;/td&gt;</t>
+        </is>
+      </c>
+      <c r="P971" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;1.16&lt;/td&gt;</t>
+        </is>
+      </c>
+      <c r="Q971" t="inlineStr">
+        <is>
+          <t>倍</t>
+        </is>
+      </c>
+      <c r="R971" t="inlineStr">
+        <is>
+          <t>－倍</t>
+        </is>
+      </c>
+      <c r="S971" t="inlineStr">
+        <is>
+          <t>－倍</t>
+        </is>
+      </c>
+      <c r="T971" t="inlineStr">
+        <is>
+          <t>0970</t>
+        </is>
+      </c>
+      <c r="U971" t="inlineStr">
+        <is>
+          <t>－ 円</t>
+        </is>
+      </c>
+      <c r="V971" t="inlineStr">
+        <is>
+          <t>－ 株</t>
+        </is>
+      </c>
+      <c r="W971" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;&lt;img alt="下降" src="/images/stock/kabuka_trend_2.jpg"/&gt;&lt;/td&gt;</t>
+        </is>
+      </c>
+      <c r="X971" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;5日線&lt;/td&gt;</t>
+        </is>
+      </c>
+      <c r="Y971" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;25日線&lt;/td&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>0971</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>ポンド／米＄</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;1.34&lt;/td&gt;</t>
+        </is>
+      </c>
+      <c r="E972" t="inlineStr">
+        <is>
+          <t>&lt;dd&gt;&lt;span class="down"&gt;-0.01&lt;/span&gt;&lt;/dd&gt;</t>
+        </is>
+      </c>
+      <c r="F972" t="inlineStr">
+        <is>
+          <t>－ 百万円</t>
+        </is>
+      </c>
+      <c r="G972" t="inlineStr">
+        <is>
+          <t>－ 回</t>
+        </is>
+      </c>
+      <c r="L972" t="inlineStr">
+        <is>
+          <t>－ 株</t>
+        </is>
+      </c>
+      <c r="M972" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;1.35&lt;/td&gt;</t>
+        </is>
+      </c>
+      <c r="N972" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;1.35&lt;/td&gt;</t>
+        </is>
+      </c>
+      <c r="O972" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;1.34&lt;/td&gt;</t>
+        </is>
+      </c>
+      <c r="P972" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;1.34&lt;/td&gt;</t>
+        </is>
+      </c>
+      <c r="Q972" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="R972" t="inlineStr">
+        <is>
+          <t>－倍</t>
+        </is>
+      </c>
+      <c r="S972" t="inlineStr">
+        <is>
+          <t>－倍</t>
+        </is>
+      </c>
+      <c r="T972" t="inlineStr">
+        <is>
+          <t>0971</t>
+        </is>
+      </c>
+      <c r="U972" t="inlineStr">
+        <is>
+          <t>－ 円</t>
+        </is>
+      </c>
+      <c r="V972" t="inlineStr">
+        <is>
+          <t>－ 株</t>
+        </is>
+      </c>
+      <c r="W972" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;&lt;img alt="上昇" src="/images/stock/kabuka_trend_1.jpg"/&gt;&lt;/td&gt;</t>
+        </is>
+      </c>
+      <c r="X972" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;5日線&lt;/td&gt;</t>
+        </is>
+      </c>
+      <c r="Y972" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;25日線&lt;/td&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>0972</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>豪ドル／米＄</t>
+        </is>
+      </c>
+      <c r="D973" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;0.72&lt;/td&gt;</t>
+        </is>
+      </c>
+      <c r="E973" t="inlineStr">
+        <is>
+          <t>&lt;dd&gt;0.00&lt;/dd&gt;</t>
+        </is>
+      </c>
+      <c r="F973" t="inlineStr">
+        <is>
+          <t>－ 百万円</t>
+        </is>
+      </c>
+      <c r="G973" t="inlineStr">
+        <is>
+          <t>－ 回</t>
+        </is>
+      </c>
+      <c r="L973" t="inlineStr">
+        <is>
+          <t>－ 株</t>
+        </is>
+      </c>
+      <c r="M973" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;0.72&lt;/td&gt;</t>
+        </is>
+      </c>
+      <c r="N973" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;0.72&lt;/td&gt;</t>
+        </is>
+      </c>
+      <c r="O973" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;0.72&lt;/td&gt;</t>
+        </is>
+      </c>
+      <c r="P973" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;0.72&lt;/td&gt;</t>
+        </is>
+      </c>
+      <c r="Q973" t="inlineStr">
+        <is>
+          <t>倍</t>
+        </is>
+      </c>
+      <c r="R973" t="inlineStr">
+        <is>
+          <t>－倍</t>
+        </is>
+      </c>
+      <c r="S973" t="inlineStr">
+        <is>
+          <t>－倍</t>
+        </is>
+      </c>
+      <c r="T973" t="inlineStr">
+        <is>
+          <t>0972</t>
+        </is>
+      </c>
+      <c r="U973" t="inlineStr">
+        <is>
+          <t>－ 円</t>
+        </is>
+      </c>
+      <c r="V973" t="inlineStr">
+        <is>
+          <t>－ 株</t>
+        </is>
+      </c>
+      <c r="W973" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;&lt;img alt="下降" src="/images/stock/kabuka_trend_2.jpg"/&gt;&lt;/td&gt;</t>
+        </is>
+      </c>
+      <c r="X973" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;5日線&lt;/td&gt;</t>
+        </is>
+      </c>
+      <c r="Y973" t="inlineStr">
+        <is>
+          <t>&lt;td&gt;25日線&lt;/td&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>0973</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R974" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S974" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>0974</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R975" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S975" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>0975</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R976" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S976" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>0976</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R977" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S977" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>0977</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R978" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S978" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>0978</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R979" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S979" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>0979</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R980" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S980" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>0980</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R981" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S981" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>0981</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R982" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S982" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>0982</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R983" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S983" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>0983</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R984" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S984" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>0984</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R985" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S985" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>0985</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R986" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S986" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>0986</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R987" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S987" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>0987</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R988" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S988" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>0988</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R989" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S989" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>0989</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R990" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S990" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>0990</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R991" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S991" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>0991</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R992" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S992" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>0992</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R993" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S993" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>0993</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R994" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S994" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>0994</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R995" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S995" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>0995</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R996" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S996" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>0996</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R997" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S997" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>0997</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R998" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S998" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>0998</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>株探からのお知らせ</t>
+        </is>
+      </c>
+      <c r="R999" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="S999" t="inlineStr">
+        <is>
+          <t>日中足</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
